--- a/data_quarter/zb/人民生活/城镇居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/城镇居民人均收入情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,41 @@
           <t>城镇居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配工资性收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配收入中位数</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配经营净收入</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配财产净收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>城镇居民人均可支配转移净收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -523,69 +553,117 @@
         <v>1109.7</v>
       </c>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>4498.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7202.9</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>907.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>687.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1109.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12385.6</v>
+        <v>8278.1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>19845.1</v>
+        <v>13246.5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2342.1</v>
+        <v>1578.2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1868.1</v>
+        <v>1256.4</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3249.4</v>
+        <v>2133.7</v>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>3779.400000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6043.6</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>670.8000000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>569.3000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1024</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8278.1</v>
+        <v>12385.6</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>13246.5</v>
+        <v>19845.1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1578.2</v>
+        <v>2342.1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1256.4</v>
+        <v>1868.1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2133.7</v>
+        <v>3249.4</v>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>4107.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6598.599999999999</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>763.8999999999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>611.6999999999998</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1115.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -610,11 +688,27 @@
         <v>4322.75</v>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>4231.780000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6621.900000000001</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>633.2400000000002</v>
+      </c>
+      <c r="R5" t="n">
+        <v>683.4400000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1073.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -649,89 +743,137 @@
       <c r="M6" t="n">
         <v>7.4</v>
       </c>
+      <c r="N6" t="n">
+        <v>4951.11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7911.89</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>998.12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>770.49</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1192.18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13404.91</v>
+        <v>9014.66</v>
       </c>
       <c r="C7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D7" t="n">
-        <v>21697</v>
+        <v>14519.66</v>
       </c>
       <c r="E7" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2610.71</v>
+        <v>1748.85</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2112.62</v>
+        <v>1418.63</v>
       </c>
       <c r="K7" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="L7" t="n">
-        <v>3568.76</v>
+        <v>2337.51</v>
       </c>
       <c r="M7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4063.55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6607.77</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>750.7299999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>648.1400000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1145.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9014.66</v>
+        <v>13404.91</v>
       </c>
       <c r="C8" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>14519.66</v>
+        <v>21697</v>
       </c>
       <c r="E8" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>1748.85</v>
+        <v>2610.71</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1418.63</v>
+        <v>2112.62</v>
       </c>
       <c r="K8" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2337.51</v>
+        <v>3568.76</v>
       </c>
       <c r="M8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4390.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7177.34</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>861.8600000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>693.9899999999998</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1231.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -766,11 +908,27 @@
       <c r="M9" t="n">
         <v>11.4</v>
       </c>
+      <c r="N9" t="n">
+        <v>4531.91</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7146.849999999999</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>668.2399999999998</v>
+      </c>
+      <c r="R9" t="n">
+        <v>699.5100000000002</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1247.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -805,89 +963,137 @@
       <c r="M10" t="n">
         <v>12.2</v>
       </c>
+      <c r="N10" t="n">
+        <v>5332.51</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8571.85</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>1076.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>824.66</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1338.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14450.4350530684</v>
+        <v>9695.700000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="n">
-        <v>23512.1164709899</v>
+        <v>15698.95</v>
       </c>
       <c r="E11" t="n">
-        <v>6.79802955665025</v>
+        <v>6.7</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>2775.82965667934</v>
+        <v>1861.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2303.05594658513</v>
+        <v>1535.66</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>3982.79581465699</v>
+        <v>2606</v>
       </c>
       <c r="M11" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4363.190000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7127.1</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>785.0999999999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>711.0000000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1267.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9695.700000000001</v>
+        <v>14450.4350530684</v>
       </c>
       <c r="C12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D12" t="n">
-        <v>15698.95</v>
+        <v>23512.1164709899</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7</v>
+        <v>6.79802955665025</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1861.6</v>
+        <v>2775.82965667934</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1535.66</v>
+        <v>2303.05594658513</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
-        <v>2606</v>
+        <v>3982.79581465699</v>
       </c>
       <c r="M12" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4754.7350530684</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7813.166470989898</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>914.2296566793402</v>
+      </c>
+      <c r="R12" t="n">
+        <v>767.3959465851301</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1376.79581465699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -922,11 +1128,27 @@
       <c r="M13" t="n">
         <v>10.9</v>
       </c>
+      <c r="N13" t="n">
+        <v>4886.669170741099</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7682.711434863802</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>700.2458366760698</v>
+      </c>
+      <c r="R13" t="n">
+        <v>738.8748386578</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1356.92158878889</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -961,89 +1183,137 @@
       <c r="M14" t="n">
         <v>11.7</v>
       </c>
+      <c r="N14" t="n">
+        <v>5683.4626089436</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9254.712086553551</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1142.06362179972</v>
+      </c>
+      <c r="R14" t="n">
+        <v>934.394856422736</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1494.79099938748</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15463.06268</v>
+        <v>10421</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D15" t="n">
-        <v>25336.594</v>
+        <v>16957</v>
       </c>
       <c r="E15" t="n">
-        <v>5.68627451</v>
+        <v>5.8</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>3022.655783</v>
+        <v>2008</v>
       </c>
       <c r="I15" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2472.26862</v>
+        <v>1663</v>
       </c>
       <c r="K15" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>4378.60691</v>
+        <v>2865</v>
       </c>
       <c r="M15" t="n">
         <v>9.9</v>
       </c>
+      <c r="N15" t="n">
+        <v>4737.5373910564</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7702.287913446449</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>865.9363782002799</v>
+      </c>
+      <c r="R15" t="n">
+        <v>728.605143577264</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1370.20900061252</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10421</v>
+        <v>15463.06268</v>
       </c>
       <c r="C16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>16957</v>
+        <v>25336.594</v>
       </c>
       <c r="E16" t="n">
-        <v>5.8</v>
+        <v>5.68627451</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>2008</v>
+        <v>3022.655783</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1663</v>
+        <v>2472.26862</v>
       </c>
       <c r="K16" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="L16" t="n">
-        <v>2865</v>
+        <v>4378.60691</v>
       </c>
       <c r="M16" t="n">
         <v>9.9</v>
       </c>
+      <c r="N16" t="n">
+        <v>5042.062679999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8379.594000000001</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1014.655783</v>
+      </c>
+      <c r="R16" t="n">
+        <v>809.2686199999998</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1513.60691</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1078,11 +1348,27 @@
       <c r="M17" t="n">
         <v>10.7</v>
       </c>
+      <c r="N17" t="n">
+        <v>5201.937320000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8279.405999999999</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>747.3442169999998</v>
+      </c>
+      <c r="R17" t="n">
+        <v>798.7313800000002</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1531.39309</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1121,97 +1407,151 @@
       <c r="M18" t="n">
         <v>10.6</v>
       </c>
+      <c r="N18" t="n">
+        <v>6132</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9986</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8700</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1212</v>
+      </c>
+      <c r="R18" t="n">
+        <v>989</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1653</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16634.59287</v>
+        <v>11204.95947</v>
       </c>
       <c r="C19" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D19" t="n">
-        <v>27430.4061</v>
+        <v>18321.87892</v>
       </c>
       <c r="E19" t="n">
-        <v>6.594488189</v>
+        <v>6.502463054</v>
       </c>
       <c r="F19" t="n">
-        <v>25340.025</v>
+        <v>16803.2</v>
       </c>
       <c r="G19" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3226.6719</v>
+        <v>2148.827266</v>
       </c>
       <c r="I19" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>2697.809074</v>
+        <v>1802.40043</v>
       </c>
       <c r="K19" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="L19" t="n">
-        <v>4871.332256</v>
+        <v>3165.691755</v>
       </c>
       <c r="M19" t="n">
-        <v>11.3</v>
+        <v>10.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5072.95947</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8335.878919999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8103.200000000001</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>936.8272659999998</v>
+      </c>
+      <c r="R19" t="n">
+        <v>813.4004299999999</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1512.691755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11204.95947</v>
+        <v>16634.59287</v>
       </c>
       <c r="C20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D20" t="n">
-        <v>18321.87892</v>
+        <v>27430.4061</v>
       </c>
       <c r="E20" t="n">
-        <v>6.502463054</v>
+        <v>6.594488189</v>
       </c>
       <c r="F20" t="n">
-        <v>16803.2</v>
+        <v>25340.025</v>
       </c>
       <c r="G20" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2148.827266</v>
+        <v>3226.6719</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J20" t="n">
-        <v>1802.40043</v>
+        <v>2697.809074</v>
       </c>
       <c r="K20" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3165.691755</v>
+        <v>4871.332256</v>
       </c>
       <c r="M20" t="n">
-        <v>10.5</v>
+        <v>11.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5429.633400000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9108.527180000001</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8536.825000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1077.844634</v>
+      </c>
+      <c r="R20" t="n">
+        <v>895.4086439999999</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1705.640501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1250,11 +1590,29 @@
       <c r="M21" t="n">
         <v>10.4</v>
       </c>
+      <c r="N21" t="n">
+        <v>5566.33699</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8965.788050000003</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8493.6383333333</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>838.074474</v>
+      </c>
+      <c r="R21" t="n">
+        <v>909.0641620000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1652.312425</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1293,97 +1651,151 @@
       <c r="M22" t="n">
         <v>8.4</v>
       </c>
+      <c r="N22" t="n">
+        <v>6605</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10781</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9275</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1308</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1076</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1792</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17913</v>
+        <v>12073</v>
       </c>
       <c r="C23" t="n">
         <v>7.7</v>
       </c>
       <c r="D23" t="n">
-        <v>29599</v>
+        <v>19770</v>
       </c>
       <c r="E23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F23" t="n">
-        <v>27226.8461538464</v>
+        <v>18048.15</v>
       </c>
       <c r="G23" t="n">
         <v>7.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3481</v>
+        <v>2313</v>
       </c>
       <c r="I23" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2945</v>
+        <v>1965</v>
       </c>
       <c r="K23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>5260</v>
+        <v>3420</v>
       </c>
       <c r="M23" t="n">
         <v>8</v>
       </c>
+      <c r="N23" t="n">
+        <v>5468</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8989</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8773.150000000001</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1005</v>
+      </c>
+      <c r="R23" t="n">
+        <v>889</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1628</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12073</v>
+        <v>17913</v>
       </c>
       <c r="C24" t="n">
         <v>7.7</v>
       </c>
       <c r="D24" t="n">
-        <v>19770</v>
+        <v>29599</v>
       </c>
       <c r="E24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F24" t="n">
-        <v>18048.15</v>
+        <v>27226.8461538464</v>
       </c>
       <c r="G24" t="n">
         <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2313</v>
+        <v>3481</v>
       </c>
       <c r="I24" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J24" t="n">
-        <v>1965</v>
+        <v>2945</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>3420</v>
+        <v>5260</v>
       </c>
       <c r="M24" t="n">
         <v>8</v>
       </c>
+      <c r="N24" t="n">
+        <v>5840</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9829</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9178.696153846398</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1168</v>
+      </c>
+      <c r="R24" t="n">
+        <v>980</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1840</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1422,11 +1834,29 @@
       <c r="M25" t="n">
         <v>7.1</v>
       </c>
+      <c r="N25" t="n">
+        <v>5879</v>
+      </c>
+      <c r="O25" t="n">
+        <v>9652</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9185.9038461536</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>962</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1083</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1728</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1465,97 +1895,151 @@
       <c r="M26" t="n">
         <v>4.4</v>
       </c>
+      <c r="N26" t="n">
+        <v>7118.2626042662</v>
+      </c>
+      <c r="O26" t="n">
+        <v>11632.6105424861</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10037.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1445.6283994148</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1197.5321426521</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1871.1873961529</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19276.7830041337</v>
+        <v>13002.6692461046</v>
       </c>
       <c r="C27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D27" t="n">
-        <v>31938.5088151948</v>
+        <v>21342.2456853954</v>
       </c>
       <c r="E27" t="n">
-        <v>5.37109375</v>
+        <v>5.675146771</v>
       </c>
       <c r="F27" t="n">
-        <v>29304.1916167665</v>
+        <v>19536.31</v>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>3862.8708443702</v>
+        <v>2566.1300279086</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3280.2577650784</v>
+        <v>2208.8694893597</v>
       </c>
       <c r="K27" t="n">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="L27" t="n">
-        <v>5518.5972016123</v>
+        <v>3564.5769220225</v>
       </c>
       <c r="M27" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5884.406641838401</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9709.635142909299</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9498.810000000001</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1120.5016284938</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1011.3373467076</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1693.3895258696</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13002.6692461046</v>
+        <v>19276.7830041337</v>
       </c>
       <c r="C28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="D28" t="n">
-        <v>21342.2456853954</v>
+        <v>31938.5088151948</v>
       </c>
       <c r="E28" t="n">
-        <v>5.675146771</v>
+        <v>5.37109375</v>
       </c>
       <c r="F28" t="n">
-        <v>19536.31</v>
+        <v>29304.1916167665</v>
       </c>
       <c r="G28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H28" t="n">
-        <v>2566.1300279086</v>
+        <v>3862.8708443702</v>
       </c>
       <c r="I28" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>2208.8694893597</v>
+        <v>3280.2577650784</v>
       </c>
       <c r="K28" t="n">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="L28" t="n">
-        <v>3564.5769220225</v>
+        <v>5518.5972016123</v>
       </c>
       <c r="M28" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6274.1137580291</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10596.2631297994</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9767.881616766499</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1296.7408164616</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1071.3882757187</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1954.020279589799</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1594,11 +2078,29 @@
       <c r="M29" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="N29" t="n">
+        <v>6288.2169958663</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10420.4911848052</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9939.8083832335</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>977.1291556298002</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1110.7422349216</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2044.4027983877</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1637,97 +2139,151 @@
       <c r="M30" t="n">
         <v>6.4</v>
       </c>
+      <c r="N30" t="n">
+        <v>7211</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11691</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10034.4133333333</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1263</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1227</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19785</v>
+        <v>13232</v>
       </c>
       <c r="C31" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="D31" t="n">
-        <v>32821</v>
+        <v>21655</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3</v>
+        <v>-2</v>
       </c>
       <c r="F31" t="n">
-        <v>30015</v>
+        <v>19617</v>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
-        <v>3595</v>
+        <v>2307</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.9</v>
+        <v>-10.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3481</v>
+        <v>2279</v>
       </c>
       <c r="K31" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="L31" t="n">
-        <v>5959</v>
+        <v>3836</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>7.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6021</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9964</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9582.586666666701</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1044</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1052</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1846</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13232</v>
+        <v>19785</v>
       </c>
       <c r="C32" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D32" t="n">
-        <v>21655</v>
+        <v>32821</v>
       </c>
       <c r="E32" t="n">
-        <v>-2</v>
+        <v>-0.3</v>
       </c>
       <c r="F32" t="n">
-        <v>19617</v>
+        <v>30015</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2307</v>
+        <v>3595</v>
       </c>
       <c r="I32" t="n">
-        <v>-10.1</v>
+        <v>-6.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2279</v>
+        <v>3481</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="L32" t="n">
-        <v>3836</v>
+        <v>5959</v>
       </c>
       <c r="M32" t="n">
-        <v>7.6</v>
+        <v>8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6553</v>
+      </c>
+      <c r="O32" t="n">
+        <v>11166</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10398</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1288</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1202</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2123</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1766,11 +2322,29 @@
       <c r="M33" t="n">
         <v>7.3</v>
       </c>
+      <c r="N33" t="n">
+        <v>6596</v>
+      </c>
+      <c r="O33" t="n">
+        <v>11013</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10362.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1116</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1146</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2157</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1809,97 +2383,151 @@
       <c r="M34" t="n">
         <v>9</v>
       </c>
+      <c r="N34" t="n">
+        <v>7942</v>
+      </c>
+      <c r="O34" t="n">
+        <v>13120</v>
+      </c>
+      <c r="P34" t="n">
+        <v>11090</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1583</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1425</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2169</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21549</v>
+        <v>14550</v>
       </c>
       <c r="C35" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>35946</v>
+        <v>24125</v>
       </c>
       <c r="E35" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="F35" t="n">
-        <v>32417</v>
+        <v>21517</v>
       </c>
       <c r="G35" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>4210</v>
+        <v>2842</v>
       </c>
       <c r="I35" t="n">
-        <v>17.1</v>
+        <v>23.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3851</v>
+        <v>2599</v>
       </c>
       <c r="K35" t="n">
-        <v>10.6</v>
+        <v>14</v>
       </c>
       <c r="L35" t="n">
-        <v>6336</v>
+        <v>4134</v>
       </c>
       <c r="M35" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6608</v>
+      </c>
+      <c r="O35" t="n">
+        <v>11005</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10427</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1259</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1174</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1965</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14550</v>
+        <v>21549</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="D36" t="n">
-        <v>24125</v>
+        <v>35946</v>
       </c>
       <c r="E36" t="n">
-        <v>10.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>21517</v>
+        <v>32417</v>
       </c>
       <c r="G36" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
-        <v>2842</v>
+        <v>4210</v>
       </c>
       <c r="I36" t="n">
-        <v>23.2</v>
+        <v>17.1</v>
       </c>
       <c r="J36" t="n">
-        <v>2599</v>
+        <v>3851</v>
       </c>
       <c r="K36" t="n">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="L36" t="n">
-        <v>4134</v>
+        <v>6336</v>
       </c>
       <c r="M36" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>11821</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10900</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1368</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1252</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1926,6 +2554,22 @@
         <v>8497.26</v>
       </c>
       <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>6931.759999999998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>11465.93</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1171.93</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1200.98</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2161.26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_quarter/zb/人民生活/城镇居民人均收入情况.xlsx
+++ b/data_quarter/zb/人民生活/城镇居民人均收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,36 +494,6 @@
           <t>城镇居民人均可支配转移净收入_累计增长</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配工资性收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配收入中位数</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配经营净收入</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配财产净收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>城镇居民人均可支配转移净收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,112 +523,64 @@
         <v>1109.7</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>4498.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7202.9</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>907.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>687.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1109.7</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8278.1</v>
+        <v>12385.6</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>13246.5</v>
+        <v>19845.1</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1578.2</v>
+        <v>2342.1</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>1256.4</v>
+        <v>1868.1</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2133.7</v>
+        <v>3249.4</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>3779.400000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6043.6</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>670.8000000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>569.3000000000001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1024</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12385.6</v>
+        <v>8278.1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>19845.1</v>
+        <v>13246.5</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2342.1</v>
+        <v>1578.2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>1868.1</v>
+        <v>1256.4</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3249.4</v>
+        <v>2133.7</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>4107.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6598.599999999999</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>763.8999999999999</v>
-      </c>
-      <c r="R4" t="n">
-        <v>611.6999999999998</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1115.7</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -688,22 +610,6 @@
         <v>4322.75</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>4231.780000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6621.900000000001</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>633.2400000000002</v>
-      </c>
-      <c r="R5" t="n">
-        <v>683.4400000000001</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1073.35</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -743,131 +649,83 @@
       <c r="M6" t="n">
         <v>7.4</v>
       </c>
-      <c r="N6" t="n">
-        <v>4951.11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7911.89</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>998.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>770.49</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1192.18</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9014.66</v>
+        <v>13404.91</v>
       </c>
       <c r="C7" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>14519.66</v>
+        <v>21697</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1748.85</v>
+        <v>2610.71</v>
       </c>
       <c r="I7" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1418.63</v>
+        <v>2112.62</v>
       </c>
       <c r="K7" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="L7" t="n">
-        <v>2337.51</v>
+        <v>3568.76</v>
       </c>
       <c r="M7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4063.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6607.77</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>750.7299999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>648.1400000000001</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1145.33</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13404.91</v>
+        <v>9014.66</v>
       </c>
       <c r="C8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="n">
-        <v>21697</v>
+        <v>14519.66</v>
       </c>
       <c r="E8" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2610.71</v>
+        <v>1748.85</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>10.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2112.62</v>
+        <v>1418.63</v>
       </c>
       <c r="K8" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="L8" t="n">
-        <v>3568.76</v>
+        <v>2337.51</v>
       </c>
       <c r="M8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4390.25</v>
-      </c>
-      <c r="O8" t="n">
-        <v>7177.34</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>861.8600000000001</v>
-      </c>
-      <c r="R8" t="n">
-        <v>693.9899999999998</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1231.25</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="9">
@@ -908,22 +766,6 @@
       <c r="M9" t="n">
         <v>11.4</v>
       </c>
-      <c r="N9" t="n">
-        <v>4531.91</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7146.849999999999</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>668.2399999999998</v>
-      </c>
-      <c r="R9" t="n">
-        <v>699.5100000000002</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1247.19</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -963,131 +805,83 @@
       <c r="M10" t="n">
         <v>12.2</v>
       </c>
-      <c r="N10" t="n">
-        <v>5332.51</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8571.85</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1076.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>824.66</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1338.17</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9695.700000000001</v>
+        <v>14450.4350530684</v>
       </c>
       <c r="C11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D11" t="n">
-        <v>15698.95</v>
+        <v>23512.1164709899</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7</v>
+        <v>6.79802955665025</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1861.6</v>
+        <v>2775.82965667934</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1535.66</v>
+        <v>2303.05594658513</v>
       </c>
       <c r="K11" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>2606</v>
+        <v>3982.79581465699</v>
       </c>
       <c r="M11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4363.190000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7127.1</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>785.0999999999999</v>
-      </c>
-      <c r="R11" t="n">
-        <v>711.0000000000001</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1267.83</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14450.4350530684</v>
+        <v>9695.700000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="D12" t="n">
-        <v>23512.1164709899</v>
+        <v>15698.95</v>
       </c>
       <c r="E12" t="n">
-        <v>6.79802955665025</v>
+        <v>6.7</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>2775.82965667934</v>
+        <v>1861.6</v>
       </c>
       <c r="I12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>2303.05594658513</v>
+        <v>1535.66</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>3982.79581465699</v>
+        <v>2606</v>
       </c>
       <c r="M12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4754.7350530684</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7813.166470989898</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>914.2296566793402</v>
-      </c>
-      <c r="R12" t="n">
-        <v>767.3959465851301</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1376.79581465699</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="13">
@@ -1128,22 +922,6 @@
       <c r="M13" t="n">
         <v>10.9</v>
       </c>
-      <c r="N13" t="n">
-        <v>4886.669170741099</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7682.711434863802</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>700.2458366760698</v>
-      </c>
-      <c r="R13" t="n">
-        <v>738.8748386578</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1356.92158878889</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1183,131 +961,83 @@
       <c r="M14" t="n">
         <v>11.7</v>
       </c>
-      <c r="N14" t="n">
-        <v>5683.4626089436</v>
-      </c>
-      <c r="O14" t="n">
-        <v>9254.712086553551</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>1142.06362179972</v>
-      </c>
-      <c r="R14" t="n">
-        <v>934.394856422736</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1494.79099938748</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10421</v>
+        <v>15463.06268</v>
       </c>
       <c r="C15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>16957</v>
+        <v>25336.594</v>
       </c>
       <c r="E15" t="n">
-        <v>5.8</v>
+        <v>5.68627451</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>2008</v>
+        <v>3022.655783</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="J15" t="n">
-        <v>1663</v>
+        <v>2472.26862</v>
       </c>
       <c r="K15" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2865</v>
+        <v>4378.60691</v>
       </c>
       <c r="M15" t="n">
         <v>9.9</v>
       </c>
-      <c r="N15" t="n">
-        <v>4737.5373910564</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7702.287913446449</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>865.9363782002799</v>
-      </c>
-      <c r="R15" t="n">
-        <v>728.605143577264</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1370.20900061252</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15463.06268</v>
+        <v>10421</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D16" t="n">
-        <v>25336.594</v>
+        <v>16957</v>
       </c>
       <c r="E16" t="n">
-        <v>5.68627451</v>
+        <v>5.8</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>3022.655783</v>
+        <v>2008</v>
       </c>
       <c r="I16" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2472.26862</v>
+        <v>1663</v>
       </c>
       <c r="K16" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>4378.60691</v>
+        <v>2865</v>
       </c>
       <c r="M16" t="n">
         <v>9.9</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5042.062679999999</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8379.594000000001</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1014.655783</v>
-      </c>
-      <c r="R16" t="n">
-        <v>809.2686199999998</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1513.60691</v>
       </c>
     </row>
     <row r="17">
@@ -1348,22 +1078,6 @@
       <c r="M17" t="n">
         <v>10.7</v>
       </c>
-      <c r="N17" t="n">
-        <v>5201.937320000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8279.405999999999</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>747.3442169999998</v>
-      </c>
-      <c r="R17" t="n">
-        <v>798.7313800000002</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1531.39309</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1407,145 +1121,91 @@
       <c r="M18" t="n">
         <v>10.6</v>
       </c>
-      <c r="N18" t="n">
-        <v>6132</v>
-      </c>
-      <c r="O18" t="n">
-        <v>9986</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8700</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1212</v>
-      </c>
-      <c r="R18" t="n">
-        <v>989</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1653</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11204.95947</v>
+        <v>16634.59287</v>
       </c>
       <c r="C19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="D19" t="n">
-        <v>18321.87892</v>
+        <v>27430.4061</v>
       </c>
       <c r="E19" t="n">
-        <v>6.502463054</v>
+        <v>6.594488189</v>
       </c>
       <c r="F19" t="n">
-        <v>16803.2</v>
+        <v>25340.025</v>
       </c>
       <c r="G19" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H19" t="n">
-        <v>2148.827266</v>
+        <v>3226.6719</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J19" t="n">
-        <v>1802.40043</v>
+        <v>2697.809074</v>
       </c>
       <c r="K19" t="n">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3165.691755</v>
+        <v>4871.332256</v>
       </c>
       <c r="M19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5072.95947</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8335.878919999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>8103.200000000001</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>936.8272659999998</v>
-      </c>
-      <c r="R19" t="n">
-        <v>813.4004299999999</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1512.691755</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16634.59287</v>
+        <v>11204.95947</v>
       </c>
       <c r="C20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D20" t="n">
-        <v>27430.4061</v>
+        <v>18321.87892</v>
       </c>
       <c r="E20" t="n">
-        <v>6.594488189</v>
+        <v>6.502463054</v>
       </c>
       <c r="F20" t="n">
-        <v>25340.025</v>
+        <v>16803.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3226.6719</v>
+        <v>2148.827266</v>
       </c>
       <c r="I20" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>2697.809074</v>
+        <v>1802.40043</v>
       </c>
       <c r="K20" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4871.332256</v>
+        <v>3165.691755</v>
       </c>
       <c r="M20" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5429.633400000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9108.527180000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8536.825000000001</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1077.844634</v>
-      </c>
-      <c r="R20" t="n">
-        <v>895.4086439999999</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1705.640501</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="21">
@@ -1590,24 +1250,6 @@
       <c r="M21" t="n">
         <v>10.4</v>
       </c>
-      <c r="N21" t="n">
-        <v>5566.33699</v>
-      </c>
-      <c r="O21" t="n">
-        <v>8965.788050000003</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8493.6383333333</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>838.074474</v>
-      </c>
-      <c r="R21" t="n">
-        <v>909.0641620000001</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1652.312425</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1651,146 +1293,92 @@
       <c r="M22" t="n">
         <v>8.4</v>
       </c>
-      <c r="N22" t="n">
-        <v>6605</v>
-      </c>
-      <c r="O22" t="n">
-        <v>10781</v>
-      </c>
-      <c r="P22" t="n">
-        <v>9275</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1308</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1076</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1792</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12073</v>
+        <v>17913</v>
       </c>
       <c r="C23" t="n">
         <v>7.7</v>
       </c>
       <c r="D23" t="n">
-        <v>19770</v>
+        <v>29599</v>
       </c>
       <c r="E23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F23" t="n">
-        <v>18048.15</v>
+        <v>27226.8461538464</v>
       </c>
       <c r="G23" t="n">
         <v>7.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2313</v>
+        <v>3481</v>
       </c>
       <c r="I23" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J23" t="n">
-        <v>1965</v>
+        <v>2945</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>3420</v>
+        <v>5260</v>
       </c>
       <c r="M23" t="n">
         <v>8</v>
       </c>
-      <c r="N23" t="n">
-        <v>5468</v>
-      </c>
-      <c r="O23" t="n">
-        <v>8989</v>
-      </c>
-      <c r="P23" t="n">
-        <v>8773.150000000001</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1005</v>
-      </c>
-      <c r="R23" t="n">
-        <v>889</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1628</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17913</v>
+        <v>12073</v>
       </c>
       <c r="C24" t="n">
         <v>7.7</v>
       </c>
       <c r="D24" t="n">
-        <v>29599</v>
+        <v>19770</v>
       </c>
       <c r="E24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F24" t="n">
-        <v>27226.8461538464</v>
+        <v>18048.15</v>
       </c>
       <c r="G24" t="n">
         <v>7.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3481</v>
+        <v>2313</v>
       </c>
       <c r="I24" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2945</v>
+        <v>1965</v>
       </c>
       <c r="K24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>5260</v>
+        <v>3420</v>
       </c>
       <c r="M24" t="n">
         <v>8</v>
       </c>
-      <c r="N24" t="n">
-        <v>5840</v>
-      </c>
-      <c r="O24" t="n">
-        <v>9829</v>
-      </c>
-      <c r="P24" t="n">
-        <v>9178.696153846398</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1168</v>
-      </c>
-      <c r="R24" t="n">
-        <v>980</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1840</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1834,24 +1422,6 @@
       <c r="M25" t="n">
         <v>7.1</v>
       </c>
-      <c r="N25" t="n">
-        <v>5879</v>
-      </c>
-      <c r="O25" t="n">
-        <v>9652</v>
-      </c>
-      <c r="P25" t="n">
-        <v>9185.9038461536</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>962</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1083</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1728</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1895,145 +1465,91 @@
       <c r="M26" t="n">
         <v>4.4</v>
       </c>
-      <c r="N26" t="n">
-        <v>7118.2626042662</v>
-      </c>
-      <c r="O26" t="n">
-        <v>11632.6105424861</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10037.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1445.6283994148</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1197.5321426521</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1871.1873961529</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13002.6692461046</v>
+        <v>19276.7830041337</v>
       </c>
       <c r="C27" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="D27" t="n">
-        <v>21342.2456853954</v>
+        <v>31938.5088151948</v>
       </c>
       <c r="E27" t="n">
-        <v>5.675146771</v>
+        <v>5.37109375</v>
       </c>
       <c r="F27" t="n">
-        <v>19536.31</v>
+        <v>29304.1916167665</v>
       </c>
       <c r="G27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2566.1300279086</v>
+        <v>3862.8708443702</v>
       </c>
       <c r="I27" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>2208.8694893597</v>
+        <v>3280.2577650784</v>
       </c>
       <c r="K27" t="n">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="L27" t="n">
-        <v>3564.5769220225</v>
+        <v>5518.5972016123</v>
       </c>
       <c r="M27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5884.406641838401</v>
-      </c>
-      <c r="O27" t="n">
-        <v>9709.635142909299</v>
-      </c>
-      <c r="P27" t="n">
-        <v>9498.810000000001</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1120.5016284938</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1011.3373467076</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1693.3895258696</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19276.7830041337</v>
+        <v>13002.6692461046</v>
       </c>
       <c r="C28" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D28" t="n">
-        <v>31938.5088151948</v>
+        <v>21342.2456853954</v>
       </c>
       <c r="E28" t="n">
-        <v>5.37109375</v>
+        <v>5.675146771</v>
       </c>
       <c r="F28" t="n">
-        <v>29304.1916167665</v>
+        <v>19536.31</v>
       </c>
       <c r="G28" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>3862.8708443702</v>
+        <v>2566.1300279086</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3280.2577650784</v>
+        <v>2208.8694893597</v>
       </c>
       <c r="K28" t="n">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="L28" t="n">
-        <v>5518.5972016123</v>
+        <v>3564.5769220225</v>
       </c>
       <c r="M28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6274.1137580291</v>
-      </c>
-      <c r="O28" t="n">
-        <v>10596.2631297994</v>
-      </c>
-      <c r="P28" t="n">
-        <v>9767.881616766499</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1296.7408164616</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1071.3882757187</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1954.020279589799</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29">
@@ -2078,24 +1594,6 @@
       <c r="M29" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="N29" t="n">
-        <v>6288.2169958663</v>
-      </c>
-      <c r="O29" t="n">
-        <v>10420.4911848052</v>
-      </c>
-      <c r="P29" t="n">
-        <v>9939.8083832335</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>977.1291556298002</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1110.7422349216</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2044.4027983877</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2139,145 +1637,91 @@
       <c r="M30" t="n">
         <v>6.4</v>
       </c>
-      <c r="N30" t="n">
-        <v>7211</v>
-      </c>
-      <c r="O30" t="n">
-        <v>11691</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10034.4133333333</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1263</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1227</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1990</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13232</v>
+        <v>19785</v>
       </c>
       <c r="C31" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="D31" t="n">
-        <v>21655</v>
+        <v>32821</v>
       </c>
       <c r="E31" t="n">
-        <v>-2</v>
+        <v>-0.3</v>
       </c>
       <c r="F31" t="n">
-        <v>19617</v>
+        <v>30015</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
-        <v>2307</v>
+        <v>3595</v>
       </c>
       <c r="I31" t="n">
-        <v>-10.1</v>
+        <v>-6.9</v>
       </c>
       <c r="J31" t="n">
-        <v>2279</v>
+        <v>3481</v>
       </c>
       <c r="K31" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3836</v>
+        <v>5959</v>
       </c>
       <c r="M31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6021</v>
-      </c>
-      <c r="O31" t="n">
-        <v>9964</v>
-      </c>
-      <c r="P31" t="n">
-        <v>9582.586666666701</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1044</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1052</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1846</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19785</v>
+        <v>13232</v>
       </c>
       <c r="C32" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="D32" t="n">
-        <v>32821</v>
+        <v>21655</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3</v>
+        <v>-2</v>
       </c>
       <c r="F32" t="n">
-        <v>30015</v>
+        <v>19617</v>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3595</v>
+        <v>2307</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.9</v>
+        <v>-10.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3481</v>
+        <v>2279</v>
       </c>
       <c r="K32" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="L32" t="n">
-        <v>5959</v>
+        <v>3836</v>
       </c>
       <c r="M32" t="n">
-        <v>8</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6553</v>
-      </c>
-      <c r="O32" t="n">
-        <v>11166</v>
-      </c>
-      <c r="P32" t="n">
-        <v>10398</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1288</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1202</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2123</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="33">
@@ -2322,24 +1766,6 @@
       <c r="M33" t="n">
         <v>7.3</v>
       </c>
-      <c r="N33" t="n">
-        <v>6596</v>
-      </c>
-      <c r="O33" t="n">
-        <v>11013</v>
-      </c>
-      <c r="P33" t="n">
-        <v>10362.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1116</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1146</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2157</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2383,145 +1809,91 @@
       <c r="M34" t="n">
         <v>9</v>
       </c>
-      <c r="N34" t="n">
-        <v>7942</v>
-      </c>
-      <c r="O34" t="n">
-        <v>13120</v>
-      </c>
-      <c r="P34" t="n">
-        <v>11090</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1583</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1425</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2169</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14550</v>
+        <v>21549</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="D35" t="n">
-        <v>24125</v>
+        <v>35946</v>
       </c>
       <c r="E35" t="n">
-        <v>10.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>21517</v>
+        <v>32417</v>
       </c>
       <c r="G35" t="n">
-        <v>9.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="H35" t="n">
-        <v>2842</v>
+        <v>4210</v>
       </c>
       <c r="I35" t="n">
-        <v>23.2</v>
+        <v>17.1</v>
       </c>
       <c r="J35" t="n">
-        <v>2599</v>
+        <v>3851</v>
       </c>
       <c r="K35" t="n">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="L35" t="n">
-        <v>4134</v>
+        <v>6336</v>
       </c>
       <c r="M35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6608</v>
-      </c>
-      <c r="O35" t="n">
-        <v>11005</v>
-      </c>
-      <c r="P35" t="n">
-        <v>10427</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1259</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1174</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1965</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21549</v>
+        <v>14550</v>
       </c>
       <c r="C36" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>35946</v>
+        <v>24125</v>
       </c>
       <c r="E36" t="n">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="F36" t="n">
-        <v>32417</v>
+        <v>21517</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>4210</v>
+        <v>2842</v>
       </c>
       <c r="I36" t="n">
-        <v>17.1</v>
+        <v>23.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3851</v>
+        <v>2599</v>
       </c>
       <c r="K36" t="n">
-        <v>10.6</v>
+        <v>14</v>
       </c>
       <c r="L36" t="n">
-        <v>6336</v>
+        <v>4134</v>
       </c>
       <c r="M36" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6999</v>
-      </c>
-      <c r="O36" t="n">
-        <v>11821</v>
-      </c>
-      <c r="P36" t="n">
-        <v>10900</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1368</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1252</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2202</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="37">
@@ -2533,42 +1905,38 @@
       <c r="B37" t="n">
         <v>28480.76</v>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>7.9606241566</v>
+      </c>
       <c r="D37" t="n">
         <v>47411.93</v>
       </c>
       <c r="E37" t="n">
         <v>7.1287128713</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>43504.265</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.7438301034</v>
+      </c>
       <c r="H37" t="n">
         <v>5381.93</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>14.2467055015</v>
+      </c>
       <c r="J37" t="n">
         <v>5051.98</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>9.196433387000001</v>
+      </c>
       <c r="L37" t="n">
         <v>8497.26</v>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>6931.759999999998</v>
-      </c>
-      <c r="O37" t="n">
-        <v>11465.93</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>1171.93</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1200.98</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2161.26</v>
+      <c r="M37" t="n">
+        <v>4.7006413879</v>
       </c>
     </row>
   </sheetData>
